--- a/五运六气/五运六气.xlsx
+++ b/五运六气/五运六气.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Chinese_Culture\五运六气\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAAFD54-9E8D-4416-932B-2C09F6B12490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55560658-753A-4B68-A8A0-B8B0E93D1607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="19680" windowWidth="29040" windowHeight="15720" xr2:uid="{686AF852-65C9-4422-8DEC-D9EA9F1262FB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="10" xr2:uid="{686AF852-65C9-4422-8DEC-D9EA9F1262FB}"/>
   </bookViews>
   <sheets>
     <sheet name="五行" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="十二支月建五行所属" sheetId="9" r:id="rId8"/>
     <sheet name="五运" sheetId="10" r:id="rId9"/>
     <sheet name="十干化运" sheetId="11" r:id="rId10"/>
+    <sheet name="二十八宿" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="169">
   <si>
     <t>甲</t>
   </si>
@@ -354,6 +355,204 @@
   </si>
   <si>
     <t>水运</t>
+  </si>
+  <si>
+    <t>宿名</t>
+  </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>尾</t>
+  </si>
+  <si>
+    <t>危</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>柳</t>
+  </si>
+  <si>
+    <t>鬼</t>
+  </si>
+  <si>
+    <t>亢</t>
+  </si>
+  <si>
+    <t>氐</t>
+  </si>
+  <si>
+    <t>昴</t>
+  </si>
+  <si>
+    <t>毕</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>翼</t>
+  </si>
+  <si>
+    <t>娄</t>
+  </si>
+  <si>
+    <t>胃</t>
+  </si>
+  <si>
+    <t>奎</t>
+  </si>
+  <si>
+    <t>壁</t>
+  </si>
+  <si>
+    <t>觜</t>
+  </si>
+  <si>
+    <t>轸</t>
+  </si>
+  <si>
+    <t>斗</t>
+  </si>
+  <si>
+    <t>虚</t>
+  </si>
+  <si>
+    <t>参</t>
+  </si>
+  <si>
+    <t>井</t>
+  </si>
+  <si>
+    <t>星</t>
+  </si>
+  <si>
+    <t>角</t>
+  </si>
+  <si>
+    <t>房</t>
+  </si>
+  <si>
+    <t>箕</t>
+  </si>
+  <si>
+    <t>dǒu</t>
+  </si>
+  <si>
+    <t>niú</t>
+  </si>
+  <si>
+    <t>nǚ</t>
+  </si>
+  <si>
+    <t>wēi</t>
+  </si>
+  <si>
+    <t>shì</t>
+  </si>
+  <si>
+    <t>bì</t>
+  </si>
+  <si>
+    <t>kuí</t>
+  </si>
+  <si>
+    <t>lóu</t>
+  </si>
+  <si>
+    <t>zī</t>
+  </si>
+  <si>
+    <t>jǐng</t>
+  </si>
+  <si>
+    <t>guǐ</t>
+  </si>
+  <si>
+    <t>liǔ</t>
+  </si>
+  <si>
+    <t>xīng</t>
+  </si>
+  <si>
+    <t>zhāng</t>
+  </si>
+  <si>
+    <t>yì</t>
+  </si>
+  <si>
+    <t>zhěn</t>
+  </si>
+  <si>
+    <t>jiǎo</t>
+  </si>
+  <si>
+    <t>kàng</t>
+  </si>
+  <si>
+    <t>dī</t>
+  </si>
+  <si>
+    <t>fáng</t>
+  </si>
+  <si>
+    <t>xīn</t>
+  </si>
+  <si>
+    <t>wěi</t>
+  </si>
+  <si>
+    <t>jī</t>
+  </si>
+  <si>
+    <t>天体方位</t>
+  </si>
+  <si>
+    <t>东方苍龙七宿</t>
+  </si>
+  <si>
+    <t>北方玄武七宿</t>
+  </si>
+  <si>
+    <t>西方白虎七宿</t>
+  </si>
+  <si>
+    <t>南方朱雀七宿</t>
+  </si>
+  <si>
+    <t>角度</t>
+  </si>
+  <si>
+    <t>角度起始</t>
+  </si>
+  <si>
+    <t>角度截至</t>
+  </si>
+  <si>
+    <t>天色</t>
+  </si>
+  <si>
+    <t>丹天</t>
+  </si>
+  <si>
+    <t>黅天</t>
+  </si>
+  <si>
+    <t>苍天</t>
+  </si>
+  <si>
+    <t>素天</t>
+  </si>
+  <si>
+    <t>玄天</t>
   </si>
 </sst>
 </file>
@@ -665,7 +864,256 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="85">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1839,121 +2287,139 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{78414386-8E42-49FA-B1DD-692BD4CAE1C8}" name="五行" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{A3998E14-4AB3-48C8-BD8F-59E116846364}" name="编号" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{78414386-8E42-49FA-B1DD-692BD4CAE1C8}" name="五行" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{A3998E14-4AB3-48C8-BD8F-59E116846364}" name="编号" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A2D971EB-EDA4-44DA-A7CA-D1899141DA71}" name="Table10" displayName="Table10" ref="A1:C11" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A2D971EB-EDA4-44DA-A7CA-D1899141DA71}" name="Table10" displayName="Table10" ref="A1:C11" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:C11" xr:uid="{A2D971EB-EDA4-44DA-A7CA-D1899141DA71}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B28B1FE-065C-47E6-AC2A-3B98081EA312}" name="五运" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{88A48FF0-9E77-47A3-80CE-D4EF766A0F82}" name="天干" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5412C49F-A0F9-43EA-9CD8-BDFC577E37C9}" name="五运到天干" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3B28B1FE-065C-47E6-AC2A-3B98081EA312}" name="五运" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{88A48FF0-9E77-47A3-80CE-D4EF766A0F82}" name="天干" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5412C49F-A0F9-43EA-9CD8-BDFC577E37C9}" name="五运到天干" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B02C235C-A6A8-43EB-B1E3-F0F121CD74AC}" name="Table11" displayName="Table11" ref="A1:I29" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I29" xr:uid="{B02C235C-A6A8-43EB-B1E3-F0F121CD74AC}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7F066D5E-4E24-4830-83E7-31ECA9CEA425}" name="宿名" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BF599549-D56D-4B59-8F16-5A0E1C5EE5B4}" name="编号" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{118935F5-3DE7-4596-AD77-24F8D64DC319}" name="拼音" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0DC38A34-C78F-4C26-8FE6-D5DE70A138D5}" name="天体方位" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C37876F1-816B-4F4F-BF3E-8823E0B4B941}" name="角度" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{898569FA-FF3A-4BC6-BCB9-74BDD24C5308}" name="角度起始" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F090711D-FC97-4C80-8E95-86D1CBB8E412}" name="角度截至" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F55CBB25-00AD-4FC9-BBA1-C68047DA10AB}" name="五方" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{811EEF2E-2D4F-490C-AD99-4618CDF9D38F}" name="天色" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{95D242B1-2E67-4564-8AE0-8CAC643C27DC}" name="Table46" displayName="Table46" ref="A1:B6" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{95D242B1-2E67-4564-8AE0-8CAC643C27DC}" name="Table46" displayName="Table46" ref="A1:B6" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B41A2F7B-CCDB-43F2-903B-567E7E4EB953}" name="五方" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{EC05A96E-0D4C-446A-B005-2D58757E8C69}" name="编号" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{B41A2F7B-CCDB-43F2-903B-567E7E4EB953}" name="五方" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{EC05A96E-0D4C-446A-B005-2D58757E8C69}" name="编号" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4F3F5EFE-485D-4EB7-B848-4B2ABBA774DC}" name="Table467" displayName="Table467" ref="A1:B6" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4F3F5EFE-485D-4EB7-B848-4B2ABBA774DC}" name="Table467" displayName="Table467" ref="A1:B6" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D0FFD84-65BE-4B07-9AB8-730BBBD7C58C}" name="五季" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{E6607446-92B6-4A97-9E6A-B72603A9CC65}" name="编号" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{6D0FFD84-65BE-4B07-9AB8-730BBBD7C58C}" name="五季" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{E6607446-92B6-4A97-9E6A-B72603A9CC65}" name="编号" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
   <autoFilter ref="A1:D11" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D2A3540-D2E1-46F4-879D-A42593F10454}" name="天干" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{88DAD465-9A0F-4BE0-9E94-B25944EC5389}" name="编号" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{1CD23E54-52C6-43A4-9561-818F030DDE55}" name="拼音" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{782EE33B-26D8-472E-B54B-8562F370FD1B}" name="阴阳" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{4D2A3540-D2E1-46F4-879D-A42593F10454}" name="天干" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{88DAD465-9A0F-4BE0-9E94-B25944EC5389}" name="编号" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{1CD23E54-52C6-43A4-9561-818F030DDE55}" name="拼音" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{782EE33B-26D8-472E-B54B-8562F370FD1B}" name="阴阳" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC5616E0-56DE-4D75-BE4D-A781B3D742BF}" name="Table7" displayName="Table7" ref="A1:D11" totalsRowShown="0" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC5616E0-56DE-4D75-BE4D-A781B3D742BF}" name="Table7" displayName="Table7" ref="A1:D11" totalsRowShown="0" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="A1:D11" xr:uid="{DC5616E0-56DE-4D75-BE4D-A781B3D742BF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D869685C-2730-4E56-9E53-97C3C5E20529}" name="天干" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{FD434002-8BB8-41D4-BBEB-9C66A07836B1}" name="五行" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{CDD92BBE-92BD-4FA5-B180-79B7F9ECA08B}" name="五方" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{340E14CC-E561-4A75-9CF1-0130A9869FEF}" name="五季" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{D869685C-2730-4E56-9E53-97C3C5E20529}" name="天干" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{FD434002-8BB8-41D4-BBEB-9C66A07836B1}" name="五行" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{CDD92BBE-92BD-4FA5-B180-79B7F9ECA08B}" name="五方" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{340E14CC-E561-4A75-9CF1-0130A9869FEF}" name="五季" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <autoFilter ref="A1:D13" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5ACF60A3-55E5-443D-9B85-FBF492C102EB}" name="地支" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{B4D4E2EC-9061-425B-80E2-24CC6EC398F1}" name="编号" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{2D3B1A4C-AF83-4113-8F4C-68D255B748CA}" name="拼音" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{7AE6E555-C2BC-4463-A96D-0B7BB9381F14}" name="阴阳" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{5ACF60A3-55E5-443D-9B85-FBF492C102EB}" name="地支" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{B4D4E2EC-9061-425B-80E2-24CC6EC398F1}" name="编号" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{2D3B1A4C-AF83-4113-8F4C-68D255B748CA}" name="拼音" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{7AE6E555-C2BC-4463-A96D-0B7BB9381F14}" name="阴阳" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}" name="Table3" displayName="Table3" ref="A1:D61" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}" name="Table3" displayName="Table3" ref="A1:D61" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
   <autoFilter ref="A1:D61" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C626788C-4738-4319-A98D-2DB6A38B0113}" name="天干" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{75D140F1-126B-4859-A666-A9E617876826}" name="地支" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{3A3F57C1-FDA7-461C-B4B2-00BF5D86B8D3}" name="编号" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{10375F55-133E-4261-83D9-D2B4F80F5F42}" name="关系" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{C626788C-4738-4319-A98D-2DB6A38B0113}" name="天干" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{75D140F1-126B-4859-A666-A9E617876826}" name="地支" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{3A3F57C1-FDA7-461C-B4B2-00BF5D86B8D3}" name="编号" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{10375F55-133E-4261-83D9-D2B4F80F5F42}" name="关系" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4FD5E785-B8CA-419F-A531-9D8DB9BB64DC}" name="Table29" displayName="Table29" ref="A1:D13" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4FD5E785-B8CA-419F-A531-9D8DB9BB64DC}" name="Table29" displayName="Table29" ref="A1:D13" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A1:D13" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F8E6F0F5-CEBF-4DB0-9D54-39902E60AF54}" name="地支" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{187DB119-4726-41BB-A851-179F6AF57CB5}" name="月份" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{C6252174-1D1C-42E5-BCBD-E5A37CE0957C}" name="月名" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{47901056-BDB7-49E7-99D2-7F6409648C51}" name="五行" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{F8E6F0F5-CEBF-4DB0-9D54-39902E60AF54}" name="地支" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{187DB119-4726-41BB-A851-179F6AF57CB5}" name="月份" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{C6252174-1D1C-42E5-BCBD-E5A37CE0957C}" name="月名" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{47901056-BDB7-49E7-99D2-7F6409648C51}" name="五行" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5643C640-A1EF-4DAD-B95E-F4F981E68BEA}" name="Table410" displayName="Table410" ref="A1:B6" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5643C640-A1EF-4DAD-B95E-F4F981E68BEA}" name="Table410" displayName="Table410" ref="A1:B6" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3EC41A46-1201-453A-857C-1B15FE60AA6C}" name="五运" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F80EC4FE-5732-4832-B2D3-77E4D1EF4234}" name="编号" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{3EC41A46-1201-453A-857C-1B15FE60AA6C}" name="五运" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{F80EC4FE-5732-4832-B2D3-77E4D1EF4234}" name="编号" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2278,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC61B7C8-B75C-4319-86BF-E20895B96554}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2470,6 +2936,907 @@
       <c r="C11" s="6" t="s">
         <v>85</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D77EB3-4E89-4A42-8AAF-C5F0BC7A381F}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="8">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8">
+        <f>G29</f>
+        <v>267</v>
+      </c>
+      <c r="G2" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>293</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="12">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <f>G2</f>
+        <v>293</v>
+      </c>
+      <c r="G3" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>301</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="12">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F8" si="0">G3</f>
+        <v>301</v>
+      </c>
+      <c r="G4" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>313</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="12">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="G5" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>323</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="12">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="G6" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>340</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="12">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="G7" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>356</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="12">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="G8" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>365</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="12">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>16</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="12">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12">
+        <f>G9</f>
+        <v>16</v>
+      </c>
+      <c r="G10" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>28</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="12">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="12">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" ref="F11:F29" si="1">G10</f>
+        <v>28</v>
+      </c>
+      <c r="G11" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>42</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="G12" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>53</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="12">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="12">
+        <v>16</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="G13" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>69</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="12">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="G14" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>71</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="12">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="12">
+        <v>9</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="G15" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>80</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="12">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="12">
+        <v>33</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G16" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>113</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="12">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="G17" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>117</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="12">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="12">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="G18" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>132</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="12">
+        <v>18</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="12">
+        <v>7</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="G19" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>139</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="12">
+        <v>19</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="12">
+        <v>18</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="G20" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>157</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="12">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="12">
+        <v>18</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="G21" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>175</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="12">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="12">
+        <v>17</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="G22" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>192</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="12">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="12">
+        <v>12</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="G23" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>204</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="12">
+        <v>23</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="12">
+        <v>9</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="G24" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>213</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="12">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="12">
+        <v>15</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
+      <c r="G25" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>228</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="12">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="12">
+        <v>5</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="G26" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>233</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="12">
+        <v>26</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="12">
+        <v>5</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+      <c r="G27" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>238</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="12">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="12">
+        <v>18</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>256</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="12">
+        <v>28</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="15">
+        <v>11</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="G29" s="12">
+        <f>Table11[[#This Row],[角度起始]]+Table11[[#This Row],[角度]]</f>
+        <v>267</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/五运六气/五运六气.xlsx
+++ b/五运六气/五运六气.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Chinese_Culture\五运六气\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55560658-753A-4B68-A8A0-B8B0E93D1607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8687399-14D9-4F26-8B1F-520BBB7E45C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="10" xr2:uid="{686AF852-65C9-4422-8DEC-D9EA9F1262FB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="11" xr2:uid="{686AF852-65C9-4422-8DEC-D9EA9F1262FB}"/>
   </bookViews>
   <sheets>
     <sheet name="五行" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="五运" sheetId="10" r:id="rId9"/>
     <sheet name="十干化运" sheetId="11" r:id="rId10"/>
     <sheet name="二十八宿" sheetId="12" r:id="rId11"/>
+    <sheet name="天色" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="175">
   <si>
     <t>甲</t>
   </si>
@@ -553,6 +554,24 @@
   </si>
   <si>
     <t>玄天</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>赤色</t>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>青色</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>黑色</t>
   </si>
 </sst>
 </file>
@@ -576,12 +595,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -804,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -860,11 +891,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="91">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2287,139 +2439,151 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88" totalsRowBorderDxfId="87">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{78414386-8E42-49FA-B1DD-692BD4CAE1C8}" name="五行" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{A3998E14-4AB3-48C8-BD8F-59E116846364}" name="编号" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{78414386-8E42-49FA-B1DD-692BD4CAE1C8}" name="五行" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{A3998E14-4AB3-48C8-BD8F-59E116846364}" name="编号" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A2D971EB-EDA4-44DA-A7CA-D1899141DA71}" name="Table10" displayName="Table10" ref="A1:C11" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A2D971EB-EDA4-44DA-A7CA-D1899141DA71}" name="Table10" displayName="Table10" ref="A1:C11" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:C11" xr:uid="{A2D971EB-EDA4-44DA-A7CA-D1899141DA71}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B28B1FE-065C-47E6-AC2A-3B98081EA312}" name="五运" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{88A48FF0-9E77-47A3-80CE-D4EF766A0F82}" name="天干" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5412C49F-A0F9-43EA-9CD8-BDFC577E37C9}" name="五运到天干" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{3B28B1FE-065C-47E6-AC2A-3B98081EA312}" name="五运" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{88A48FF0-9E77-47A3-80CE-D4EF766A0F82}" name="天干" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{5412C49F-A0F9-43EA-9CD8-BDFC577E37C9}" name="五运到天干" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B02C235C-A6A8-43EB-B1E3-F0F121CD74AC}" name="Table11" displayName="Table11" ref="A1:I29" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B02C235C-A6A8-43EB-B1E3-F0F121CD74AC}" name="Table11" displayName="Table11" ref="A1:I29" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:I29" xr:uid="{B02C235C-A6A8-43EB-B1E3-F0F121CD74AC}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7F066D5E-4E24-4830-83E7-31ECA9CEA425}" name="宿名" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{BF599549-D56D-4B59-8F16-5A0E1C5EE5B4}" name="编号" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{118935F5-3DE7-4596-AD77-24F8D64DC319}" name="拼音" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{0DC38A34-C78F-4C26-8FE6-D5DE70A138D5}" name="天体方位" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C37876F1-816B-4F4F-BF3E-8823E0B4B941}" name="角度" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{898569FA-FF3A-4BC6-BCB9-74BDD24C5308}" name="角度起始" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F090711D-FC97-4C80-8E95-86D1CBB8E412}" name="角度截至" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{F55CBB25-00AD-4FC9-BBA1-C68047DA10AB}" name="五方" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{811EEF2E-2D4F-490C-AD99-4618CDF9D38F}" name="天色" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7F066D5E-4E24-4830-83E7-31ECA9CEA425}" name="宿名" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{BF599549-D56D-4B59-8F16-5A0E1C5EE5B4}" name="编号" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{118935F5-3DE7-4596-AD77-24F8D64DC319}" name="拼音" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0DC38A34-C78F-4C26-8FE6-D5DE70A138D5}" name="天体方位" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C37876F1-816B-4F4F-BF3E-8823E0B4B941}" name="角度" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{898569FA-FF3A-4BC6-BCB9-74BDD24C5308}" name="角度起始" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F090711D-FC97-4C80-8E95-86D1CBB8E412}" name="角度截至" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{F55CBB25-00AD-4FC9-BBA1-C68047DA10AB}" name="五方" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{811EEF2E-2D4F-490C-AD99-4618CDF9D38F}" name="天色" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{916D7FD7-E46E-4EA7-8E0A-D7C8C80C4429}" name="Table12" displayName="Table12" ref="A1:C6" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:C6" xr:uid="{916D7FD7-E46E-4EA7-8E0A-D7C8C80C4429}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9073D295-1661-4DA2-9A31-2E87F2F69824}" name="天色" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{2780FD34-468A-4EEE-A087-A186E439A5A7}" name="颜色" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E601BC91-D6A4-4FC2-AAF5-2DA555D2ABBA}" name="五行"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{95D242B1-2E67-4564-8AE0-8CAC643C27DC}" name="Table46" displayName="Table46" ref="A1:B6" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{95D242B1-2E67-4564-8AE0-8CAC643C27DC}" name="Table46" displayName="Table46" ref="A1:B6" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B41A2F7B-CCDB-43F2-903B-567E7E4EB953}" name="五方" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{EC05A96E-0D4C-446A-B005-2D58757E8C69}" name="编号" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{B41A2F7B-CCDB-43F2-903B-567E7E4EB953}" name="五方" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{EC05A96E-0D4C-446A-B005-2D58757E8C69}" name="编号" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4F3F5EFE-485D-4EB7-B848-4B2ABBA774DC}" name="Table467" displayName="Table467" ref="A1:B6" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4F3F5EFE-485D-4EB7-B848-4B2ABBA774DC}" name="Table467" displayName="Table467" ref="A1:B6" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D0FFD84-65BE-4B07-9AB8-730BBBD7C58C}" name="五季" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{E6607446-92B6-4A97-9E6A-B72603A9CC65}" name="编号" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{6D0FFD84-65BE-4B07-9AB8-730BBBD7C58C}" name="五季" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{E6607446-92B6-4A97-9E6A-B72603A9CC65}" name="编号" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <autoFilter ref="A1:D11" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D2A3540-D2E1-46F4-879D-A42593F10454}" name="天干" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{88DAD465-9A0F-4BE0-9E94-B25944EC5389}" name="编号" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{1CD23E54-52C6-43A4-9561-818F030DDE55}" name="拼音" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{782EE33B-26D8-472E-B54B-8562F370FD1B}" name="阴阳" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{4D2A3540-D2E1-46F4-879D-A42593F10454}" name="天干" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{88DAD465-9A0F-4BE0-9E94-B25944EC5389}" name="编号" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{1CD23E54-52C6-43A4-9561-818F030DDE55}" name="拼音" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{782EE33B-26D8-472E-B54B-8562F370FD1B}" name="阴阳" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC5616E0-56DE-4D75-BE4D-A781B3D742BF}" name="Table7" displayName="Table7" ref="A1:D11" totalsRowShown="0" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC5616E0-56DE-4D75-BE4D-A781B3D742BF}" name="Table7" displayName="Table7" ref="A1:D11" totalsRowShown="0" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="A1:D11" xr:uid="{DC5616E0-56DE-4D75-BE4D-A781B3D742BF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D869685C-2730-4E56-9E53-97C3C5E20529}" name="天干" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{FD434002-8BB8-41D4-BBEB-9C66A07836B1}" name="五行" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{CDD92BBE-92BD-4FA5-B180-79B7F9ECA08B}" name="五方" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{340E14CC-E561-4A75-9CF1-0130A9869FEF}" name="五季" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{D869685C-2730-4E56-9E53-97C3C5E20529}" name="天干" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{FD434002-8BB8-41D4-BBEB-9C66A07836B1}" name="五行" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{CDD92BBE-92BD-4FA5-B180-79B7F9ECA08B}" name="五方" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{340E14CC-E561-4A75-9CF1-0130A9869FEF}" name="五季" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="A1:D13" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5ACF60A3-55E5-443D-9B85-FBF492C102EB}" name="地支" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{B4D4E2EC-9061-425B-80E2-24CC6EC398F1}" name="编号" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{2D3B1A4C-AF83-4113-8F4C-68D255B748CA}" name="拼音" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{7AE6E555-C2BC-4463-A96D-0B7BB9381F14}" name="阴阳" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{5ACF60A3-55E5-443D-9B85-FBF492C102EB}" name="地支" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{B4D4E2EC-9061-425B-80E2-24CC6EC398F1}" name="编号" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{2D3B1A4C-AF83-4113-8F4C-68D255B748CA}" name="拼音" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{7AE6E555-C2BC-4463-A96D-0B7BB9381F14}" name="阴阳" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}" name="Table3" displayName="Table3" ref="A1:D61" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}" name="Table3" displayName="Table3" ref="A1:D61" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <autoFilter ref="A1:D61" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C626788C-4738-4319-A98D-2DB6A38B0113}" name="天干" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{75D140F1-126B-4859-A666-A9E617876826}" name="地支" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{3A3F57C1-FDA7-461C-B4B2-00BF5D86B8D3}" name="编号" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{10375F55-133E-4261-83D9-D2B4F80F5F42}" name="关系" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{C626788C-4738-4319-A98D-2DB6A38B0113}" name="天干" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{75D140F1-126B-4859-A666-A9E617876826}" name="地支" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{3A3F57C1-FDA7-461C-B4B2-00BF5D86B8D3}" name="编号" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{10375F55-133E-4261-83D9-D2B4F80F5F42}" name="关系" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4FD5E785-B8CA-419F-A531-9D8DB9BB64DC}" name="Table29" displayName="Table29" ref="A1:D13" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4FD5E785-B8CA-419F-A531-9D8DB9BB64DC}" name="Table29" displayName="Table29" ref="A1:D13" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A1:D13" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F8E6F0F5-CEBF-4DB0-9D54-39902E60AF54}" name="地支" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{187DB119-4726-41BB-A851-179F6AF57CB5}" name="月份" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{C6252174-1D1C-42E5-BCBD-E5A37CE0957C}" name="月名" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{47901056-BDB7-49E7-99D2-7F6409648C51}" name="五行" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{F8E6F0F5-CEBF-4DB0-9D54-39902E60AF54}" name="地支" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{187DB119-4726-41BB-A851-179F6AF57CB5}" name="月份" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{C6252174-1D1C-42E5-BCBD-E5A37CE0957C}" name="月名" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{47901056-BDB7-49E7-99D2-7F6409648C51}" name="五行" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5643C640-A1EF-4DAD-B95E-F4F981E68BEA}" name="Table410" displayName="Table410" ref="A1:B6" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5643C640-A1EF-4DAD-B95E-F4F981E68BEA}" name="Table410" displayName="Table410" ref="A1:B6" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3EC41A46-1201-453A-857C-1B15FE60AA6C}" name="五运" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{F80EC4FE-5732-4832-B2D3-77E4D1EF4234}" name="编号" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{3EC41A46-1201-453A-857C-1B15FE60AA6C}" name="五运" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{F80EC4FE-5732-4832-B2D3-77E4D1EF4234}" name="编号" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2949,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D77EB3-4E89-4A42-8AAF-C5F0BC7A381F}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3837,6 +4001,90 @@
         <v>92</v>
       </c>
       <c r="I29" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A86E4C-FD3C-44F0-96BE-FA956044AE71}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
